--- a/medicine/Autisme/Jim_Sinclair/Jim_Sinclair.xlsx
+++ b/medicine/Autisme/Jim_Sinclair/Jim_Sinclair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jim Sinclair (né en octobre 1940) est un citoyen américain, premier militant historique du mouvements pour les droits des personnes autistes (en anglais Autism rights movement).
-Ayant lui-même reçu un diagnostic d'autisme, n'ayant pas parlé jusqu'à l'âge de douze ans, il fonde en 1992, avec Michelle Dawson et Kathy Lissner Grant, l'association Autism Network International[1].
-Il est présenté comme le premier[2] à incarner cette position militante dans un papier intitulé « Don't mourn for us »[3], reprise d'une présentation dans une conférence faite à Toronto et traduite en français par « Ne nous pleurez pas »[4].
-Jim Sinclair parle aussi de l'intersexuation, ayant découvert à 16 ans, alors qu'il était élevé en tant que fille, qu'il n'avait pas un appareil reproducteur strictement féminin, mais intersexué[5].
-Il s'est exprimé sur les formulations utilisées pour désigner les personnes autistes : il témoigne ne pas aimer la formulation « personne avec autisme », qui selon lui laisse entendre que l'autisme peut être séparé de la personne et n'en est pas une partie importante, pour lui préférer « personne autiste »[6].
+Ayant lui-même reçu un diagnostic d'autisme, n'ayant pas parlé jusqu'à l'âge de douze ans, il fonde en 1992, avec Michelle Dawson et Kathy Lissner Grant, l'association Autism Network International.
+Il est présenté comme le premier à incarner cette position militante dans un papier intitulé « Don't mourn for us », reprise d'une présentation dans une conférence faite à Toronto et traduite en français par « Ne nous pleurez pas ».
+Jim Sinclair parle aussi de l'intersexuation, ayant découvert à 16 ans, alors qu'il était élevé en tant que fille, qu'il n'avait pas un appareil reproducteur strictement féminin, mais intersexué.
+Il s'est exprimé sur les formulations utilisées pour désigner les personnes autistes : il témoigne ne pas aimer la formulation « personne avec autisme », qui selon lui laisse entendre que l'autisme peut être séparé de la personne et n'en est pas une partie importante, pour lui préférer « personne autiste ».
 </t>
         </is>
       </c>
